--- a/test_result.xlsx
+++ b/test_result.xlsx
@@ -7,6 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="일일출고형식" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="김해시" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="대구" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="통영시" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="부산" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="창원시" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="의성군" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="울산" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="김천시" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="포항시" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
 </workbook>
@@ -15,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <color indexed="8"/>
@@ -36,8 +45,12 @@
       <color indexed="8"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="26"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,8 +63,13 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0E0E1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -74,13 +92,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="00000000"/>
+      </left>
+      <right style="double">
+        <color rgb="00000000"/>
+      </right>
+      <top style="double">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -100,6 +132,12 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,1105 +1245,1123 @@
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1" s="6">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>매출처</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>상품명</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>옵션값</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>수량</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>수취인</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>전화</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>휴대전화</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>주소</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>착불비</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>선불비</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="7" t="inlineStr">
         <is>
           <t>배송메세지</t>
         </is>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1" s="6">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>벨리카(반품)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>사린2단협탁_1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>마하 2단 협탁 / 화이트</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="8" t="inlineStr">
         <is>
           <t>박선주</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="8" t="inlineStr">
         <is>
           <t>010-5020-4214</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="8" t="inlineStr">
         <is>
           <t>010-5020-4214</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>경남 김해시 두곡로 15 (삼계동) 한라비발디센텀시티 119동1102호</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="8" t="n">
         <v>20000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="8" t="n">
         <v>-5000</v>
       </c>
+      <c r="K2" s="8" t="n"/>
     </row>
     <row r="3" ht="16" customHeight="1" s="6">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>위즈바움</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>아미떼좌식 800 화장대+수납거울</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>내추럴화이트[LS102][1]</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>신다영</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>010-8432-3308</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>010-8432-3308</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="8" t="inlineStr">
         <is>
           <t>경남 김해시 대청동 288-2 (대청동) 홍익빌 202호</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="8" t="n">
         <v>17000</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="J3" s="8" t="n"/>
+      <c r="K3" s="8" t="inlineStr">
         <is>
           <t>배송메모 : 배송전에 미리 연락주세요/  요청사항 : /  조립요청여부 : 요청 안함</t>
         </is>
       </c>
     </row>
     <row r="4" ht="16" customHeight="1" s="6">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>로쏘</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>블루밍600 5단</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>화이트</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t>우희선</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>0504-1681-0497</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="8" t="inlineStr">
         <is>
           <t>0504-2415-9324</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="8" t="inlineStr">
         <is>
           <t>대구 서구 중리동 110-1번지 대진빌라 B동 101호</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="8" t="n">
         <v>15000</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="8" t="inlineStr">
         <is>
           <t>[배송비선결제]#우희선/1077265</t>
         </is>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" s="6">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>로쏘</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>블루밍800 5단</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>화이트</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="8" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>우희선</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>0504-1681-0497</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="8" t="inlineStr">
         <is>
           <t>0504-2415-9324</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="8" t="inlineStr">
         <is>
           <t>대구 서구 중리동 110-1번지 대진빌라 B동 101호</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="8" t="n">
         <v>20000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="8" t="inlineStr">
         <is>
           <t>[배송비선결제]#우희선/1077266</t>
         </is>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1" s="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>플레인홈</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>소프 600 렌지대 소형+소프 600 도어 수납장+소프 300 틈새 도어 수납장</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>화이트</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>이홍창</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>050-3346-5946</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="8" t="inlineStr">
         <is>
           <t>050-3346-5946</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="8" t="inlineStr">
         <is>
           <t>경남 김해시 어방동 577 화인아파트 204동 702호</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="8" t="n">
         <v>45000</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="8" t="inlineStr">
         <is>
           <t>직접 받고 부재 시 문 앞</t>
         </is>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" s="6">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>대림퍼니처</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>아코르2자수납장(중)_1</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>05_에르 1200 수납장(중형):화이트/-5000원/1개</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t>최미선2-1</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>010-7722-1289</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="8" t="inlineStr">
         <is>
           <t>010-7722-1289</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="8" t="inlineStr">
         <is>
           <t>경남 통영시 광도면 죽림3로 13 (주영더팰리스) 103동 2101호</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="8" t="n">
         <v>15000</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="8" t="n">
         <v>0</v>
       </c>
+      <c r="K7" s="8" t="n"/>
     </row>
     <row r="8" ht="16" customHeight="1" s="6">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>가구MD</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>지니4자1단오픈+ㄱ자상판오크</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>UFO 도브 오픈형 거실장+ㄱ자상판(거울별도)_C</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>편강섭</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>010-5501-1841</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>010-5501-1841</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="8" t="inlineStr">
         <is>
           <t>경남 김해시 내덕로120번길 4-17, 301호 (내덕동)</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="8" t="n">
         <v>15000</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="8" t="inlineStr">
         <is>
           <t>[고객배송메모]부재 시 문 앞에 놓아주세요</t>
         </is>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" s="6">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="8" t="inlineStr">
         <is>
           <t>착한가구</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>루이스아일랜드+유리</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>착한가구 로맨틱아일랜드 서랍장화이트</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>신지영</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>0502-0851-5808</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t>0502-0851-5808</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
         <is>
           <t>대구 수성구 수성동4가 1148-10 2층</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="8" t="n">
         <v>20000</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="8" t="n">
         <v>-5000</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" s="8" t="inlineStr">
         <is>
           <t>차고샷시 살짝 올리고  아래로밀어넣어주세요</t>
         </is>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" s="6">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="8" t="inlineStr">
         <is>
           <t>벨리카</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>무스카수납장 서랍형_1</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>선불 프라페 서랍형 와이드 렌지대 / 그레이</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="8" t="inlineStr">
         <is>
           <t>오현덕</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>010-5443-0307</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
         <is>
           <t>010-5443-0307</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="8" t="inlineStr">
         <is>
           <t>대구 달서구 계대동문로 124 (이곡동) 8층 강남건설주식회사</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="8" t="n">
         <v>20000</v>
       </c>
+      <c r="K10" s="8" t="n"/>
     </row>
     <row r="11" ht="16" customHeight="1" s="6">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="8" t="inlineStr">
         <is>
           <t>벨리카</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>메르가갤러리수납장 도어형_1</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>바게트 도어형 와이드 렌지대 / 그레이</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t>이용범</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>0504-3929-0160</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr">
         <is>
           <t>010-8560-0202</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="8" t="inlineStr">
         <is>
           <t>대구 달서구 당산로45길 61 (감삼동) 일신아파트 15동 308호</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="8" t="n">
         <v>25000</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="8" t="n">
         <v>-5000</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="8" t="inlineStr">
         <is>
           <t>집 앞에 놓아주세요.</t>
         </is>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" s="6">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>벨리카</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>아스피수납장 도어형_1</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>프라페 도어형 와이드 렌지대 / 그레이</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="8" t="inlineStr">
         <is>
           <t>노비나</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="8" t="inlineStr">
         <is>
           <t>0508-6234-6274</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="8" t="inlineStr">
         <is>
           <t>010-4325-4560</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" s="8" t="inlineStr">
         <is>
           <t>부산 부산진구 성지로137번길 12 3층</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="8" t="n">
         <v>25000</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="8" t="n">
         <v>-5000</v>
       </c>
+      <c r="K12" s="8" t="n"/>
     </row>
     <row r="13" ht="16" customHeight="1" s="6">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="8" t="inlineStr">
         <is>
           <t>벨리카</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>메르가갤러리수납장 도어형_1</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>선불 바게트 도어형 와이드 렌지대 / 화이트</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="8" t="inlineStr">
         <is>
           <t>권경화</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="8" t="inlineStr">
         <is>
           <t>010-4027-0836</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="8" t="inlineStr">
         <is>
           <t>010-4027-0836</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="8" t="inlineStr">
         <is>
           <t>경남 창원시 진해구 진해대로 943 (자은동, 덕산해군아파트) 107-703</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="8" t="n">
         <v>20000</v>
       </c>
+      <c r="K13" s="8" t="n"/>
     </row>
     <row r="14" ht="16" customHeight="1" s="6">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>플레인홈</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>무스카 1000 수납장</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>네이비</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="D14" s="8" t="n"/>
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>손주혜</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>0502-0305-2665</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="8" t="inlineStr">
         <is>
           <t>0502-0305-2665</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" s="8" t="inlineStr">
         <is>
           <t>경북 의성군 의성읍 동서1길 43 경북 의성군 의성읍 중리리845-1</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="8" t="n">
         <v>20000</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" s="8" t="inlineStr">
         <is>
           <t>직접 받고 부재 시 문 앞</t>
         </is>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" s="6">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>로쏘</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>아르민 미니 화장대 세트+긴거울</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>화이트</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="8" t="inlineStr">
         <is>
           <t>서인숙</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="8" t="inlineStr">
         <is>
           <t>010-8254-4611</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
         <is>
           <t>010-8254-4611</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="8" t="inlineStr">
         <is>
           <t>울산 남구 삼산로202번길 17-8 (달동, 신세계빌라) B동301호</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="8" t="n">
         <v>15000</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K15" s="8" t="inlineStr">
         <is>
           <t>배송 전 연락 바랍니다.#서인숙/1076968</t>
         </is>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" s="6">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>벨리카</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>루크바갤러리수납장 서랍형_1</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="8" t="inlineStr">
         <is>
           <t>바게트 서랍형 와이드 렌지대 / 멀바우</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="8" t="inlineStr">
         <is>
           <t>김*식</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="8" t="inlineStr">
         <is>
           <t>010-3508-3487</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="8" t="inlineStr">
         <is>
           <t>010-3508-3487</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="8" t="inlineStr">
         <is>
           <t>대구 북구 학정로7길 25-3, 114동501호 (태전동, 태전황금빌)</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="8" t="n">
         <v>25000</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="8" t="n">
         <v>-5000</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" s="8" t="inlineStr">
         <is>
           <t>문 앞에 놓아주세요</t>
         </is>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" s="6">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="8" t="inlineStr">
         <is>
           <t>벨리카</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>메르가갤러리수납장 도어형_1</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t>바게트 도어형 와이드 렌지대 / 화이트</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="8" t="inlineStr">
         <is>
           <t>박명희2</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="8" t="inlineStr">
         <is>
           <t>010-2455-0294</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="8" t="inlineStr">
         <is>
           <t>010-2455-0294</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="8" t="inlineStr">
         <is>
           <t>부산 동래구 아시아드대로207번길 45 (온천동) 남양빌 303호202호</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="8" t="n">
         <v>25000</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="8" t="n">
         <v>-5000</v>
       </c>
+      <c r="K17" s="8" t="n"/>
     </row>
     <row r="18" ht="16" customHeight="1" s="6">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="8" t="inlineStr">
         <is>
           <t>벨리카</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>메르가갤러리수납장 도어형_1</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="8" t="inlineStr">
         <is>
           <t>바게트 도어형 와이드 렌지대 / 화이트</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="8" t="inlineStr">
         <is>
           <t>박명희2</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="8" t="inlineStr">
         <is>
           <t>010-2455-0294</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="8" t="inlineStr">
         <is>
           <t>010-2455-0294</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" s="8" t="inlineStr">
         <is>
           <t>부산 동래구 아시아드대로207번길 45 (온천동) 남양빌 303호202호</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="8" t="n">
         <v>25000</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="8" t="n">
         <v>-5000</v>
       </c>
+      <c r="K18" s="8" t="n"/>
     </row>
     <row r="19" ht="16" customHeight="1" s="6">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="8" t="inlineStr">
         <is>
           <t>벨리카</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>루크바갤러리수납장 서랍형_1</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>바게트 서랍형 와이드 렌지대 / 화이트</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="8" t="inlineStr">
         <is>
           <t>황지영</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="8" t="inlineStr">
         <is>
           <t>010-2301-8105</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" s="8" t="inlineStr">
         <is>
           <t>010-2301-8105</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
         <is>
           <t>부산 해운대구 좌동로 98 (좌동) 2106호</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="8" t="n">
         <v>25000</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="8" t="n">
         <v>-5000</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" s="8" t="inlineStr">
         <is>
           <t>부재시 문 앞에 놓아주세요.</t>
         </is>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" s="6">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="8" t="inlineStr">
         <is>
           <t>동서가구</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>스누티4자3단화이트+800수납거울-무료</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>버피 800 3단 수납 화장대 +거울 DF918513무료색상:화이트/0원/1개</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="8" t="inlineStr">
         <is>
           <t>조태수</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="8" t="inlineStr">
         <is>
           <t>010-3504-3515</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" s="8" t="inlineStr">
         <is>
           <t>010-3504-3515</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" s="8" t="inlineStr">
         <is>
           <t>경북 김천시 부곡길 76 (2층)</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="8" t="n">
         <v>5500</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="8" t="n">
         <v>15000</v>
       </c>
+      <c r="K20" s="8" t="n"/>
     </row>
     <row r="21" ht="16" customHeight="1" s="6">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="8" t="inlineStr">
         <is>
           <t>GM</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>([무스카] 수납장 서랍형)[동서가구] 소프 모린 서랍형 수납장 DJD014</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t>화이트</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="8" t="inlineStr">
         <is>
           <t>장민주(주문자:장민주)</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="inlineStr">
         <is>
           <t>0504-2088-5374</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" s="8" t="inlineStr">
         <is>
           <t>부산 북구 덕천동 덕천3동 421-34번지 2층</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="8" t="n">
         <v>5000</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="8" t="n">
         <v>15000</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K21" s="8" t="inlineStr">
         <is>
           <t>배송메세지:문 앞</t>
         </is>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" s="6">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="8" t="inlineStr">
         <is>
           <t>동서가구</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>스누티4자3단화이트-착불</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="8" t="inlineStr">
         <is>
           <t>동서가구/착불 피바 1200 3단 서랍장 DF918510착불색상:화이트-1개</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="D22" s="8" t="n"/>
+      <c r="E22" s="8" t="inlineStr">
         <is>
           <t>배은철</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="F22" s="8" t="n"/>
+      <c r="G22" s="8" t="inlineStr">
         <is>
           <t>010-3588-5543</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>부산 남구 대연동 649 삼성아파트 103동 413호</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="8" t="n">
         <v>27500</v>
       </c>
+      <c r="J22" s="8" t="n"/>
+      <c r="K22" s="8" t="n"/>
     </row>
     <row r="23" ht="16" customHeight="1" s="6">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>벨리카</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>아스피수납장 도어형_1</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="8" t="inlineStr">
         <is>
           <t>선불 프라페 도어형 와이드 렌지대 /그레이</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="8" t="inlineStr">
         <is>
           <t>정혜연</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="8" t="inlineStr">
         <is>
           <t>010-6495-0883</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" s="8" t="inlineStr">
         <is>
           <t>010-6495-0883</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" s="8" t="inlineStr">
         <is>
           <t>경북 포항시 남구 오천읍 원리 부영사랑으로아파트 129동702호</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="8" t="n">
         <v>20000</v>
       </c>
+      <c r="K23" s="8" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2319,4 +2375,720 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>포항시</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>정혜연</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>아스피수납장 도어형_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>선불 프라페 도어형 와이드 렌지대 /그레이</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>김해시</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>박선주</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>사린2단협탁_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>마하 2단 협탁 / 화이트</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>신다영</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>아미떼좌식 800 화장대+수납거울</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>내추럴화이트[LS102][1]</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>이홍창</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>소프 600 렌지대 소형+소프 600 도어 수납장+소프 300 틈새 도어 수납장</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>화이트</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>편강섭</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>지니4자1단오픈+ㄱ자상판오크</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UFO 도브 오픈형 거실장+ㄱ자상판(거울별도)_C</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>우희선</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>블루밍600 5단</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>화이트</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>우희선</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>블루밍800 5단</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>화이트</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>신지영</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>루이스아일랜드+유리</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>착한가구 로맨틱아일랜드 서랍장화이트</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>오현덕</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>무스카수납장 서랍형_1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>선불 프라페 서랍형 와이드 렌지대 / 그레이</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>이용범</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>메르가갤러리수납장 도어형_1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>바게트 도어형 와이드 렌지대 / 그레이</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>김*식</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>루크바갤러리수납장 서랍형_1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>바게트 서랍형 와이드 렌지대 / 멀바우</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>통영시</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>최미선2-1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>아코르2자수납장(중)_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>05_에르 1200 수납장(중형):화이트/-5000원/1개</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>노비나</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>아스피수납장 도어형_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>프라페 도어형 와이드 렌지대 / 그레이</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>박명희2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>메르가갤러리수납장 도어형_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>바게트 도어형 와이드 렌지대 / 화이트</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>박명희2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>메르가갤러리수납장 도어형_1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>바게트 도어형 와이드 렌지대 / 화이트</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>황지영</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>루크바갤러리수납장 서랍형_1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>바게트 서랍형 와이드 렌지대 / 화이트</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>장민주(주문자:장민주)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>([무스카] 수납장 서랍형)[동서가구] 소프 모린 서랍형 수납장 DJD014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>화이트</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>배은철</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>스누티4자3단화이트-착불</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>동서가구/착불 피바 1200 3단 서랍장 DF918510착불색상:화이트-1개</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>창원시</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>권경화</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>메르가갤러리수납장 도어형_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>선불 바게트 도어형 와이드 렌지대 / 화이트</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>의성군</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>손주혜</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>무스카 1000 수납장</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>네이비</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>울산</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>서인숙</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>아르민 미니 화장대 세트+긴거울</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>화이트</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>김천시</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>조태수</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>스누티4자3단화이트+800수납거울-무료</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>버피 800 3단 수납 화장대 +거울 DF918513무료색상:화이트/0원/1개</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/test_result.xlsx
+++ b/test_result.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <color indexed="8"/>
@@ -49,6 +49,9 @@
       <b val="1"/>
       <sz val="26"/>
     </font>
+    <font>
+      <sz val="18"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -69,7 +72,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -106,13 +109,30 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -138,9 +158,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="region_style" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2390,6 +2414,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" style="6" min="1" max="1"/>
+    <col width="50" customWidth="1" style="6" min="2" max="2"/>
+    <col width="50" customWidth="1" style="6" min="3" max="3"/>
+    <col width="20" customWidth="1" style="6" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
@@ -2402,22 +2432,22 @@
       <c r="D1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>정혜연</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>아스피수납장 도어형_1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>선불 프라페 도어형 와이드 렌지대 /그레이</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,6 +2472,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" style="6" min="1" max="1"/>
+    <col width="50" customWidth="1" style="6" min="2" max="2"/>
+    <col width="50" customWidth="1" style="6" min="3" max="3"/>
+    <col width="20" customWidth="1" style="6" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
@@ -2454,82 +2490,82 @@
       <c r="D1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>박선주</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>사린2단협탁_1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>마하 2단 협탁 / 화이트</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>신다영</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
         <is>
           <t>아미떼좌식 800 화장대+수납거울</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>내추럴화이트[LS102][1]</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="11" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>이홍창</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>소프 600 렌지대 소형+소프 600 도어 수납장+소프 300 틈새 도어 수납장</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>화이트</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="11" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>편강섭</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>지니4자1단오픈+ㄱ자상판오크</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>UFO 도브 오픈형 거실장+ㄱ자상판(거울별도)_C</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2554,6 +2590,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" style="6" min="1" max="1"/>
+    <col width="50" customWidth="1" style="6" min="2" max="2"/>
+    <col width="50" customWidth="1" style="6" min="3" max="3"/>
+    <col width="20" customWidth="1" style="6" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
@@ -2566,116 +2608,118 @@
       <c r="D1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>김*식</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>루크바갤러리수납장 서랍형_1</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>바게트 서랍형 와이드 렌지대 / 멀바우</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>신지영</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>루이스아일랜드+유리</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>착한가구 로맨틱아일랜드 서랍장화이트</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>오현덕</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>무스카수납장 서랍형_1</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>선불 프라페 서랍형 와이드 렌지대 / 그레이</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>우희선</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>블루밍600 5단</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>화이트</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="D5" s="11" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>우희선</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>블루밍800 5단</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>화이트</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>신지영</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>루이스아일랜드+유리</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>착한가구 로맨틱아일랜드 서랍장화이트</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>오현덕</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>무스카수납장 서랍형_1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>선불 프라페 서랍형 와이드 렌지대 / 그레이</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="D6" s="11" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>이용범</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>메르가갤러리수납장 도어형_1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>바게트 도어형 와이드 렌지대 / 그레이</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>김*식</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>루크바갤러리수납장 서랍형_1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>바게트 서랍형 와이드 렌지대 / 멀바우</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="D7" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2700,6 +2744,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" style="6" min="1" max="1"/>
+    <col width="50" customWidth="1" style="6" min="2" max="2"/>
+    <col width="50" customWidth="1" style="6" min="3" max="3"/>
+    <col width="20" customWidth="1" style="6" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
@@ -2712,22 +2762,22 @@
       <c r="D1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>최미선2-1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>아코르2자수납장(중)_1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>05_에르 1200 수납장(중형):화이트/-5000원/1개</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2752,6 +2802,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" style="6" min="1" max="1"/>
+    <col width="50" customWidth="1" style="6" min="2" max="2"/>
+    <col width="50" customWidth="1" style="6" min="3" max="3"/>
+    <col width="20" customWidth="1" style="6" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
@@ -2764,120 +2820,121 @@
       <c r="D1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>노비나</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>아스피수납장 도어형_1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>프라페 도어형 와이드 렌지대 / 그레이</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>박명희2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
         <is>
           <t>메르가갤러리수납장 도어형_1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>바게트 도어형 와이드 렌지대 / 화이트</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>박명희2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>메르가갤러리수납장 도어형_1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>바게트 도어형 와이드 렌지대 / 화이트</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>배은철</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>스누티4자3단화이트-착불</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>동서가구/착불 피바 1200 3단 서랍장 DF918510착불색상:화이트-1개</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>장민주(주문자:장민주)</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>([무스카] 수납장 서랍형)[동서가구] 소프 모린 서랍형 수납장 DJD014</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>화이트</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
         <is>
           <t>황지영</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>루크바갤러리수납장 서랍형_1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>바게트 서랍형 와이드 렌지대 / 화이트</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D7" s="11" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>장민주(주문자:장민주)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>([무스카] 수납장 서랍형)[동서가구] 소프 모린 서랍형 수납장 DJD014</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>화이트</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>배은철</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>스누티4자3단화이트-착불</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>동서가구/착불 피바 1200 3단 서랍장 DF918510착불색상:화이트-1개</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -2901,6 +2958,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" style="6" min="1" max="1"/>
+    <col width="50" customWidth="1" style="6" min="2" max="2"/>
+    <col width="50" customWidth="1" style="6" min="3" max="3"/>
+    <col width="20" customWidth="1" style="6" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
@@ -2913,22 +2976,22 @@
       <c r="D1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>권경화</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>메르가갤러리수납장 도어형_1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>선불 바게트 도어형 와이드 렌지대 / 화이트</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,6 +3016,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" style="6" min="1" max="1"/>
+    <col width="50" customWidth="1" style="6" min="2" max="2"/>
+    <col width="50" customWidth="1" style="6" min="3" max="3"/>
+    <col width="20" customWidth="1" style="6" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
@@ -2965,21 +3034,22 @@
       <c r="D1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>손주혜</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>무스카 1000 수납장</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>네이비</t>
         </is>
       </c>
+      <c r="D2" s="11" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3002,6 +3072,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" style="6" min="1" max="1"/>
+    <col width="50" customWidth="1" style="6" min="2" max="2"/>
+    <col width="50" customWidth="1" style="6" min="3" max="3"/>
+    <col width="20" customWidth="1" style="6" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
@@ -3014,22 +3090,22 @@
       <c r="D1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>서인숙</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>아르민 미니 화장대 세트+긴거울</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>화이트</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3054,6 +3130,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" style="6" min="1" max="1"/>
+    <col width="50" customWidth="1" style="6" min="2" max="2"/>
+    <col width="50" customWidth="1" style="6" min="3" max="3"/>
+    <col width="20" customWidth="1" style="6" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
@@ -3066,22 +3148,22 @@
       <c r="D1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>조태수</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>스누티4자3단화이트+800수납거울-무료</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>버피 800 3단 수납 화장대 +거울 DF918513무료색상:화이트/0원/1개</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="11" t="n">
         <v>2</v>
       </c>
     </row>
